--- a/Fase2/Evidencias Proyecto/Presentacion Proyecto/Evidencias de documentación según metodología utiizada/Requerimientos Funcionales y no Funcionales.xlsx
+++ b/Fase2/Evidencias Proyecto/Presentacion Proyecto/Evidencias de documentación según metodología utiizada/Requerimientos Funcionales y no Funcionales.xlsx
@@ -31,7 +31,7 @@
     <t>RF03</t>
   </si>
   <si>
-    <t>El sistema debe mostrar los datos extraídos por el OCR y permitir al usuario confirmar, editar o corregir dicha información antes de guardarla.</t>
+    <t>El sistema debe mostrar los datos extraídos por el OCR y permitir al usuario confirmar, volver a tomar una foto nuevamente o guardar.</t>
   </si>
   <si>
     <t>RF04</t>
@@ -85,7 +85,7 @@
     <t>RF12</t>
   </si>
   <si>
-    <t>El sistema debe ofrecer al rol de Administrador una interfaz o módulo que permita visualizar métricas y estadísticas consolidadas (ej. tipo de comida más escaneada, como en C.U15) para el análisis del uso de la aplicación.</t>
+    <t>El sistema debe ofrecer al rol de Administrador una interfaz la cual le permita poder agregar,eliminar,modificar ingredientes traidos desde la coleccion de ingredientes y ademas poder exportar los historiales de analsis de los usuarios en json.</t>
   </si>
   <si>
     <t>RF13</t>
